--- a/data/trans_orig/P1428-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3549</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>845</v>
+        <v>1057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8738</v>
+        <v>8675</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007183926452271449</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001709857390673776</v>
+        <v>0.002139613248155119</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01768518163348733</v>
+        <v>0.01755866350029982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6700</v>
+        <v>6645</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004088729860202813</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01433183971693709</v>
+        <v>0.01421402502579528</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5461</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1927</v>
+        <v>1838</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11343</v>
+        <v>11231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005679099671300135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00200392441301291</v>
+        <v>0.001911907862226464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01179680857018573</v>
+        <v>0.01168035191575109</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>490515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>485326</v>
+        <v>485389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493219</v>
+        <v>493007</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9928160735477286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9823148183665127</v>
+        <v>0.9824413364997002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982901426093262</v>
+        <v>0.997860386751845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>487</v>
@@ -836,7 +836,7 @@
         <v>465578</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>460789</v>
+        <v>460844</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.9959112701397972</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9856681602830629</v>
+        <v>0.9857859749742047</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>956092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>950210</v>
+        <v>950322</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>959626</v>
+        <v>959715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9943209003286999</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9882031914298143</v>
+        <v>0.9883196480842477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9979960755869871</v>
+        <v>0.9980880921377735</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9649</v>
+        <v>9210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00431432818507356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001385472632460378</v>
+        <v>0.001384663116126657</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01311909454036353</v>
+        <v>0.01252239119823663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7870</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3066</v>
+        <v>3469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15591</v>
+        <v>15563</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01258275728355541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004901033589463942</v>
+        <v>0.005545699752167382</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02492661563737577</v>
+        <v>0.02488097238709828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>11044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5099</v>
+        <v>5192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20555</v>
+        <v>19329</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008114414933969536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003746482625089121</v>
+        <v>0.003815055814605208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01510286198191291</v>
+        <v>0.01420219275218735</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>732316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>725840</v>
+        <v>726279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>734470</v>
+        <v>734471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9956856718149264</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9868809054596366</v>
+        <v>0.9874776088017647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9986145273675396</v>
+        <v>0.9986153368838734</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>584</v>
@@ -1053,19 +1053,19 @@
         <v>617624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>609903</v>
+        <v>609931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>622428</v>
+        <v>622025</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9874172427164446</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9750733843626243</v>
+        <v>0.9751190276129015</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950989664105361</v>
+        <v>0.9944543002478325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1284</v>
@@ -1074,19 +1074,19 @@
         <v>1349938</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1340427</v>
+        <v>1341653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1355883</v>
+        <v>1355790</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9918855850660304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.984897138018087</v>
+        <v>0.9857978072478124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9962535173749106</v>
+        <v>0.9961849441853947</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>911</v>
+        <v>1095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9501</v>
+        <v>9023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006142023258314836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001427018814352584</v>
+        <v>0.001714585877480251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01487642485896388</v>
+        <v>0.01412782744376031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1199,19 +1199,19 @@
         <v>38808</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27887</v>
+        <v>28097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52973</v>
+        <v>52351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05626425394415026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04043154716116552</v>
+        <v>0.0407358804825319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07680156154772703</v>
+        <v>0.07589916251681859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>42731</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31492</v>
+        <v>31514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56991</v>
+        <v>57583</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03216672407369803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02370651267383644</v>
+        <v>0.02372306679143741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04290183851801192</v>
+        <v>0.04334718127470222</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>634745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629167</v>
+        <v>629645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637757</v>
+        <v>637573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9938579767416852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9851235751410362</v>
+        <v>0.9858721725562397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985729811856503</v>
+        <v>0.9982854141225198</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -1270,19 +1270,19 @@
         <v>650936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>636771</v>
+        <v>637393</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>661857</v>
+        <v>661647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9437357460558498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9231984384522731</v>
+        <v>0.9241008374831814</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9595684528388345</v>
+        <v>0.959264119517468</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1229</v>
@@ -1291,19 +1291,19 @@
         <v>1285681</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1271421</v>
+        <v>1270829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1296920</v>
+        <v>1296898</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.967833275926302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9570981614819883</v>
+        <v>0.9566528187252978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9762934873261637</v>
+        <v>0.9762769332085628</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>25505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16884</v>
+        <v>16517</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37647</v>
+        <v>37011</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04912915000614836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0325216823229423</v>
+        <v>0.03181543837690553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07251652820793833</v>
+        <v>0.07129144810630357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1416,19 +1416,19 @@
         <v>74896</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59988</v>
+        <v>59536</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91284</v>
+        <v>91795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.145248668212164</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.116337345191069</v>
+        <v>0.1154595193902345</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1770295252542021</v>
+        <v>0.1780215498655674</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1437,19 +1437,19 @@
         <v>100402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83058</v>
+        <v>82164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121684</v>
+        <v>122747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0970261203797336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08026548440141297</v>
+        <v>0.0794015897077729</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1175926154430816</v>
+        <v>0.118619859090061</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>493642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481500</v>
+        <v>482136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502263</v>
+        <v>502630</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9508708499938516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.927483471792062</v>
+        <v>0.9287085518936963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9674783176770577</v>
+        <v>0.9681845616230944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>429</v>
@@ -1487,19 +1487,19 @@
         <v>440746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424358</v>
+        <v>423847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>455654</v>
+        <v>456106</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.854751331787836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8229704747457979</v>
+        <v>0.8219784501344326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.883662654808931</v>
+        <v>0.8845404806097655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>889</v>
@@ -1508,19 +1508,19 @@
         <v>934387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>913105</v>
+        <v>912042</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951731</v>
+        <v>952625</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9029738796202664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8824073845569184</v>
+        <v>0.881380140909939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.919734515598587</v>
+        <v>0.9205984102922269</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>63560</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50571</v>
+        <v>48458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80138</v>
+        <v>77654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1643599600658373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1307731110360858</v>
+        <v>0.1253085564767834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2072305682130232</v>
+        <v>0.2008073623650781</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -1633,19 +1633,19 @@
         <v>113305</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97088</v>
+        <v>95549</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130829</v>
+        <v>130222</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2804666388695268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2403240979034346</v>
+        <v>0.2365165296427251</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3238460932379595</v>
+        <v>0.3223438217224992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -1654,19 +1654,19 @@
         <v>176864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154099</v>
+        <v>153835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200009</v>
+        <v>203070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2236817088325543</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1948909225853267</v>
+        <v>0.1945565837674338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.252952911951951</v>
+        <v>0.2568248656554805</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>323150</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>306572</v>
+        <v>309056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>336139</v>
+        <v>338252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8356400399341627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.792769431786977</v>
+        <v>0.799192637634922</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8692268889639143</v>
+        <v>0.8746914435232168</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>284</v>
@@ -1704,19 +1704,19 @@
         <v>290681</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>273157</v>
+        <v>273764</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>306898</v>
+        <v>308437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7195333611304732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6761539067620405</v>
+        <v>0.6776561782775004</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7596759020965651</v>
+        <v>0.7634834703572747</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>612</v>
@@ -1725,19 +1725,19 @@
         <v>613832</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>590687</v>
+        <v>587626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>636597</v>
+        <v>636861</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7763182911674458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.747047088048049</v>
+        <v>0.7431751343445194</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8051090774146733</v>
+        <v>0.8054434162325662</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>64189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52854</v>
+        <v>51860</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80920</v>
+        <v>77892</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2193863151735612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1806465955206063</v>
+        <v>0.1772472784579129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2765718957109716</v>
+        <v>0.2662203100347098</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1850,19 +1850,19 @@
         <v>161329</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>142213</v>
+        <v>143933</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>177936</v>
+        <v>177656</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4704371012415928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4146943592013662</v>
+        <v>0.4197097656437046</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5188625037132696</v>
+        <v>0.5180482478887608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>241</v>
@@ -1871,19 +1871,19 @@
         <v>225518</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202148</v>
+        <v>203789</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>250564</v>
+        <v>249440</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3548568850026937</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3180838762740453</v>
+        <v>0.3206671548977827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3942676119181532</v>
+        <v>0.3924990481356612</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>228394</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211663</v>
+        <v>214691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239729</v>
+        <v>240723</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7806136848264388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7234281042890284</v>
+        <v>0.7337796899652905</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8193534044793938</v>
+        <v>0.8227527215420872</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>198</v>
@@ -1921,19 +1921,19 @@
         <v>181605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164998</v>
+        <v>165278</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200721</v>
+        <v>199001</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5295628987584072</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4811374962867304</v>
+        <v>0.4819517521112393</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5853056407986337</v>
+        <v>0.5802902343562953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>433</v>
@@ -1942,19 +1942,19 @@
         <v>409999</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384953</v>
+        <v>386077</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>433369</v>
+        <v>431728</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6451431149973063</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6057323880818467</v>
+        <v>0.6075009518643387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6819161237259548</v>
+        <v>0.6793328451022173</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>72659</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58775</v>
+        <v>61140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85700</v>
+        <v>86689</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3461875658352896</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.280038584444023</v>
+        <v>0.2913033824531129</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4083228485900475</v>
+        <v>0.4130341784033713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -2067,19 +2067,19 @@
         <v>198434</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179607</v>
+        <v>178872</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>217580</v>
+        <v>216767</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5942766619387581</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5378939368942808</v>
+        <v>0.5356921982186551</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6516169738073448</v>
+        <v>0.6491817196282028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>250</v>
@@ -2088,19 +2088,19 @@
         <v>271093</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>245374</v>
+        <v>246896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294422</v>
+        <v>296389</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.498523540745442</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4512283349399104</v>
+        <v>0.454028222018017</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5414255870010162</v>
+        <v>0.5450428450908339</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>137224</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>124183</v>
+        <v>123194</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>151108</v>
+        <v>148743</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6538124341647104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5916771514099524</v>
+        <v>0.5869658215966295</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7199614155559767</v>
+        <v>0.7086966175468872</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>118</v>
@@ -2138,19 +2138,19 @@
         <v>135474</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>116328</v>
+        <v>117141</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>154301</v>
+        <v>155036</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4057233380612419</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3483830261926555</v>
+        <v>0.3508182803717971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4621060631057192</v>
+        <v>0.464307801781345</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>260</v>
@@ -2159,19 +2159,19 @@
         <v>272698</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>249369</v>
+        <v>247402</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>298417</v>
+        <v>296895</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.501476459254558</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4585744129989838</v>
+        <v>0.4549571549091662</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5487716650600898</v>
+        <v>0.545971777981983</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>236558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07219732892719168</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>577</v>
@@ -2284,19 +2284,19 @@
         <v>596553</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1765370015432699</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>822</v>
@@ -2305,19 +2305,19 @@
         <v>833111</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1251718002122634</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3039985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3008997</v>
+        <v>3008647</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3066616</v>
+        <v>3066416</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9278026710728083</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9183449476717856</v>
+        <v>0.9182383274123997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9359304551024399</v>
+        <v>0.9358693871407694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2720</v>
@@ -2355,19 +2355,19 @@
         <v>2782644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2737138</v>
+        <v>2739826</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2828802</v>
+        <v>2827117</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8234629984567301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8099966531203148</v>
+        <v>0.8107920066501748</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8371224893589951</v>
+        <v>0.8366238530891182</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5689</v>
@@ -2376,19 +2376,19 @@
         <v>5822630</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5772962</v>
+        <v>5769007</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5875933</v>
+        <v>5871425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8748281997877366</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8673658558582805</v>
+        <v>0.8667716219477226</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8828367716552709</v>
+        <v>0.8821594460416493</v>
       </c>
     </row>
     <row r="27">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5472</v>
+        <v>5401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002011551537729737</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01204847929139063</v>
+        <v>0.01189332925612168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6871</v>
+        <v>6790</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005109505487294132</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01596960351761948</v>
+        <v>0.0157823143956296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2765,19 +2765,19 @@
         <v>3112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8290</v>
+        <v>8995</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003518639231834317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001032799365409271</v>
+        <v>0.001031383753219179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009373680887823225</v>
+        <v>0.01017148537350563</v>
       </c>
     </row>
     <row r="5">
@@ -2794,7 +2794,7 @@
         <v>453232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448674</v>
+        <v>448745</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -2803,7 +2803,7 @@
         <v>0.9979884484622703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9879515207086095</v>
+        <v>0.9881066707438797</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>428032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423359</v>
+        <v>423440</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2824,7 +2824,7 @@
         <v>0.9948904945127058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9840303964823807</v>
+        <v>0.9842176856043704</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2836,19 +2836,19 @@
         <v>881264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>876086</v>
+        <v>875381</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>883463</v>
+        <v>883464</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9964813607681657</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9906263191121772</v>
+        <v>0.9898285146264943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9989672006345907</v>
+        <v>0.9989686162467808</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>8751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3942</v>
+        <v>3903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17952</v>
+        <v>18369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01273639514803346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005737763135469902</v>
+        <v>0.005680934013128333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02612829391127025</v>
+        <v>0.0267343280056079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2961,19 +2961,19 @@
         <v>2948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8843</v>
+        <v>7926</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004830880989842658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001583614003562532</v>
+        <v>0.001576142355046531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0144901750241434</v>
+        <v>0.01298870121485828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2982,19 +2982,19 @@
         <v>11699</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6013</v>
+        <v>5852</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23130</v>
+        <v>21509</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00901772951811554</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004634677618428428</v>
+        <v>0.004511026115377635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01782880797428139</v>
+        <v>0.01657943338894122</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>678336</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>669135</v>
+        <v>668718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>683145</v>
+        <v>683184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9872636048519665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9738717060887297</v>
+        <v>0.9732656719943921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9942622368645301</v>
+        <v>0.9943190659868717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>568</v>
@@ -3032,19 +3032,19 @@
         <v>607307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>601412</v>
+        <v>602329</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609289</v>
+        <v>609293</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9951691190101574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9855098249758566</v>
+        <v>0.9870112987851417</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984163859964374</v>
+        <v>0.9984238576449534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1228</v>
@@ -3053,19 +3053,19 @@
         <v>1285643</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1274212</v>
+        <v>1275833</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1291329</v>
+        <v>1291490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9909822704818845</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9821711920257188</v>
+        <v>0.983420566611059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9953653223815716</v>
+        <v>0.9954889738846223</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>6783</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2764</v>
+        <v>3125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14046</v>
+        <v>14872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009948303760927268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004053784695324656</v>
+        <v>0.004583214292888604</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02060016792818635</v>
+        <v>0.02181143590847535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3178,19 +3178,19 @@
         <v>13887</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7907</v>
+        <v>7926</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22327</v>
+        <v>22908</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0195711623031637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01114307287198423</v>
+        <v>0.01116962004015119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03146492216992917</v>
+        <v>0.03228413905831046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3199,19 +3199,19 @@
         <v>20671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13102</v>
+        <v>13360</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30289</v>
+        <v>31126</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01485555655900087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009416385773460755</v>
+        <v>0.009601672080430302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02176822699426874</v>
+        <v>0.022369966673391</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>675080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>667817</v>
+        <v>666991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679099</v>
+        <v>678738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9900516962390727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9793998320718131</v>
+        <v>0.9781885640915241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959462153046753</v>
+        <v>0.9954167857071113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -3249,19 +3249,19 @@
         <v>695687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>687247</v>
+        <v>686666</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>701667</v>
+        <v>701648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9804288376968363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9685350778300708</v>
+        <v>0.9677158609416896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888569271280158</v>
+        <v>0.9888303799598488</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1296</v>
@@ -3270,19 +3270,19 @@
         <v>1370766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1361148</v>
+        <v>1360311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1378335</v>
+        <v>1378077</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9851444434409992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9782317730057313</v>
+        <v>0.977630033326609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9905836142265392</v>
+        <v>0.9903983279195701</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>11641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5448</v>
+        <v>5371</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20537</v>
+        <v>21040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01894012753588246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008864326794704787</v>
+        <v>0.008739330587061183</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0334139385926195</v>
+        <v>0.03423223659816295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -3395,19 +3395,19 @@
         <v>48252</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35703</v>
+        <v>36688</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65054</v>
+        <v>64150</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07855328593111212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05812255423874815</v>
+        <v>0.05972641425767508</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1059060761640661</v>
+        <v>0.1044341044734136</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -3416,19 +3416,19 @@
         <v>59893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45255</v>
+        <v>45196</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76348</v>
+        <v>77922</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04873814885957052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03682655242604522</v>
+        <v>0.03677800227812855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06212805601019962</v>
+        <v>0.06340884442891311</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>602976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>594080</v>
+        <v>593577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609169</v>
+        <v>609246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9810598724641175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9665860614073818</v>
+        <v>0.9657677634018371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9911356732052953</v>
+        <v>0.9912606694129388</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -3466,19 +3466,19 @@
         <v>566012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>549210</v>
+        <v>550114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>578561</v>
+        <v>577576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9214467140688879</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8940939238359337</v>
+        <v>0.8955658955265864</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9418774457612519</v>
+        <v>0.940273585742325</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1033</v>
@@ -3487,19 +3487,19 @@
         <v>1168987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1152532</v>
+        <v>1150958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1183625</v>
+        <v>1183684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9512618511404295</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9378719439898004</v>
+        <v>0.936591155571087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.963173447573955</v>
+        <v>0.9632219977218716</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>39956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29218</v>
+        <v>29256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54550</v>
+        <v>54256</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09304499479219712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06803960541288304</v>
+        <v>0.06812851761118981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1270302107839746</v>
+        <v>0.126344731190687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -3612,19 +3612,19 @@
         <v>90938</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72897</v>
+        <v>75350</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110189</v>
+        <v>109350</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2030783616613003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1627897604366575</v>
+        <v>0.1682676441284834</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2460675356982505</v>
+        <v>0.2441933294313293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -3633,19 +3633,19 @@
         <v>130895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109853</v>
+        <v>109135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155611</v>
+        <v>154574</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1492138317773797</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1252271805943816</v>
+        <v>0.1244092947781603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1773897375755186</v>
+        <v>0.1762071753062209</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>389473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>374879</v>
+        <v>375173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>400211</v>
+        <v>400173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9069550052078029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8729697892160254</v>
+        <v>0.8736552688093131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9319603945871169</v>
+        <v>0.9318714823888102</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>323</v>
@@ -3683,19 +3683,19 @@
         <v>356862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>337611</v>
+        <v>338450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>374903</v>
+        <v>372450</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7969216383386997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7539324643017505</v>
+        <v>0.7558066705686708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8372102395633434</v>
+        <v>0.8317323558715168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>679</v>
@@ -3704,19 +3704,19 @@
         <v>746334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>721618</v>
+        <v>722655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>767376</v>
+        <v>768094</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8507861682226203</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8226102624244804</v>
+        <v>0.82379282469378</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8747728194056184</v>
+        <v>0.8755907052218398</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>50959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38597</v>
+        <v>37320</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67272</v>
+        <v>66232</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1644958370483927</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.124592654759008</v>
+        <v>0.1204709053230718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2171559847547125</v>
+        <v>0.2137980446159776</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>109</v>
@@ -3829,19 +3829,19 @@
         <v>115726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98528</v>
+        <v>96657</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133233</v>
+        <v>132457</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3269123745257538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2783310215313125</v>
+        <v>0.2730468331367478</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3763678371211728</v>
+        <v>0.3741772738678228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -3850,19 +3850,19 @@
         <v>166684</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>144571</v>
+        <v>145416</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>192434</v>
+        <v>189024</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2511128119140005</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2177989829233034</v>
+        <v>0.2190714751785939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2899047657365308</v>
+        <v>0.284768037265173</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>258827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242514</v>
+        <v>243554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271189</v>
+        <v>272466</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8355041629516073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7828440152452876</v>
+        <v>0.7862019553840223</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8754073452409921</v>
+        <v>0.8795290946769282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -3900,19 +3900,19 @@
         <v>238270</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220763</v>
+        <v>221539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>255468</v>
+        <v>257339</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6730876254742462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6236321628788269</v>
+        <v>0.6258227261321772</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7216689784686865</v>
+        <v>0.7269531668632522</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>472</v>
@@ -3921,19 +3921,19 @@
         <v>497098</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>471348</v>
+        <v>474758</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>519211</v>
+        <v>518366</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7488871880859995</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7100952342634692</v>
+        <v>0.715231962734827</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7822010170766966</v>
+        <v>0.7809285248214063</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>57300</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43691</v>
+        <v>46019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71286</v>
+        <v>72247</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2293373495658831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1748680479906047</v>
+        <v>0.1841865920058055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2853125844500941</v>
+        <v>0.2891589876307769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -4046,19 +4046,19 @@
         <v>166727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>146173</v>
+        <v>146015</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186125</v>
+        <v>185909</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4286272609107978</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.375785162446272</v>
+        <v>0.3753807976591877</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4784965840357636</v>
+        <v>0.4779403827921683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>204</v>
@@ -4067,19 +4067,19 @@
         <v>224027</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200006</v>
+        <v>198112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250816</v>
+        <v>250176</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3506835731699391</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3130813974611984</v>
+        <v>0.310117660841824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3926177926276189</v>
+        <v>0.391616615366265</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>192551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>178565</v>
+        <v>177604</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>206160</v>
+        <v>203832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.770662650434117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.714687415549906</v>
+        <v>0.710841012369223</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8251319520093954</v>
+        <v>0.8158134079941947</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>199</v>
@@ -4117,19 +4117,19 @@
         <v>222252</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202854</v>
+        <v>203070</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>242806</v>
+        <v>242964</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5713727390892022</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5215034159642365</v>
+        <v>0.5220596172078316</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6242148375537282</v>
+        <v>0.6246192023408123</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>368</v>
@@ -4138,19 +4138,19 @@
         <v>414803</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>388014</v>
+        <v>388654</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>438824</v>
+        <v>440718</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6493164268300609</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6073822073723811</v>
+        <v>0.6083833846337349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6869186025388015</v>
+        <v>0.689882339158176</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>176304</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153784</v>
+        <v>152478</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205668</v>
+        <v>207328</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05144882674475209</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04487705761826451</v>
+        <v>0.04449598293492777</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06001787289483951</v>
+        <v>0.06050222761378406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>405</v>
@@ -4263,19 +4263,19 @@
         <v>440677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>402701</v>
+        <v>401377</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>482301</v>
+        <v>482939</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1239563813994062</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1132741397368291</v>
+        <v>0.1129019157854907</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1356644943123643</v>
+        <v>0.1358439432947194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>565</v>
@@ -4284,19 +4284,19 @@
         <v>616981</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>570186</v>
+        <v>565300</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>668937</v>
+        <v>667606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08836891046857921</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08166660035326381</v>
+        <v>0.08096680374312565</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09581043492241495</v>
+        <v>0.09561979899922025</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3250475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3221111</v>
+        <v>3219451</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3272995</v>
+        <v>3274301</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.948551173255248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9399821271051605</v>
+        <v>0.9394977723862159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9551229423817355</v>
+        <v>0.9555040170650722</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2891</v>
@@ -4334,19 +4334,19 @@
         <v>3114421</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3072797</v>
+        <v>3072159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3152397</v>
+        <v>3153721</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8760436186005938</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8643355056876357</v>
+        <v>0.8641560567052804</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.886725860263171</v>
+        <v>0.8870980842145092</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5940</v>
@@ -4355,19 +4355,19 @@
         <v>6364896</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6312940</v>
+        <v>6314271</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6411691</v>
+        <v>6416577</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9116310895314208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9041895650775851</v>
+        <v>0.9043802010007798</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9183333996467362</v>
+        <v>0.9190331962568744</v>
       </c>
     </row>
     <row r="27">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6568</v>
+        <v>6540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004745253092309082</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01659546869799606</v>
+        <v>0.01652529506626185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5893</v>
+        <v>6588</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002303626328429776</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007228409731114742</v>
+        <v>0.008081339886604514</v>
       </c>
     </row>
     <row r="5">
@@ -4778,7 +4778,7 @@
         <v>393877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>389187</v>
+        <v>389215</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4787,7 +4787,7 @@
         <v>0.9952547469076909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9834045313020039</v>
+        <v>0.9834747049337381</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>813340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809325</v>
+        <v>808630</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4808,7 +4808,7 @@
         <v>0.9976963736715703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9927715902688842</v>
+        <v>0.9919186601133955</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7274</v>
+        <v>7158</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003405290256683468</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01231860212945797</v>
+        <v>0.01212258839843167</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8047</v>
+        <v>7955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004355340967823313</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01427919791328021</v>
+        <v>0.01411641298655177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4945,19 +4945,19 @@
         <v>4465</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11674</v>
+        <v>10543</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003869221405208379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0009145567142001396</v>
+        <v>0.0009129593245826946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01011548916143119</v>
+        <v>0.009136021055241753</v>
       </c>
     </row>
     <row r="8">
@@ -4974,7 +4974,7 @@
         <v>588485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583222</v>
+        <v>583338</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4983,7 +4983,7 @@
         <v>0.9965947097433165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9876813978705418</v>
+        <v>0.9878774116015693</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>561090</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555497</v>
+        <v>555589</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -5004,7 +5004,7 @@
         <v>0.9956446590321767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9857208020867199</v>
+        <v>0.9858835870134482</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5016,19 +5016,19 @@
         <v>1149575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1142366</v>
+        <v>1143497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152985</v>
+        <v>1152986</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9961307785947916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.989884510838567</v>
+        <v>0.9908639789447581</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9990854432857998</v>
+        <v>0.9990870406754173</v>
       </c>
     </row>
     <row r="9">
@@ -5120,19 +5120,19 @@
         <v>7499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2918</v>
+        <v>2951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15355</v>
+        <v>15491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01120733486996155</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004361443845839003</v>
+        <v>0.004410698306184202</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0229487118942273</v>
+        <v>0.02315238579278771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5141,19 +5141,19 @@
         <v>8289</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3838</v>
+        <v>3643</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15512</v>
+        <v>15703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01253307752826653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005802243988150775</v>
+        <v>0.005508859226369319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02345395546134812</v>
+        <v>0.02374296494358771</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5162,19 +5162,19 @@
         <v>15788</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8893</v>
+        <v>8898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24986</v>
+        <v>26878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01186636472910316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006684389397280709</v>
+        <v>0.00668750482312505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01877930697089128</v>
+        <v>0.02020161626437509</v>
       </c>
     </row>
     <row r="11">
@@ -5191,19 +5191,19 @@
         <v>661598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>653742</v>
+        <v>653606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666179</v>
+        <v>666146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9887926651300385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9770512881057726</v>
+        <v>0.976847614207212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995638556154161</v>
+        <v>0.9955893016938158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -5212,19 +5212,19 @@
         <v>653097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>645874</v>
+        <v>645683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657548</v>
+        <v>657743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9874669224717335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9765460445386517</v>
+        <v>0.976257035056413</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9941977560118491</v>
+        <v>0.9944911407736308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1288</v>
@@ -5233,19 +5233,19 @@
         <v>1314695</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1305497</v>
+        <v>1303605</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1321590</v>
+        <v>1321585</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9881336352708968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812206930291087</v>
+        <v>0.9797983837356249</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9933156106027193</v>
+        <v>0.9933124951768749</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>24960</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16327</v>
+        <v>15834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36575</v>
+        <v>36046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03863472126082118</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02527189279080573</v>
+        <v>0.02450955454929147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05661328143151833</v>
+        <v>0.05579525977939665</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -5358,19 +5358,19 @@
         <v>42604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30786</v>
+        <v>30692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56211</v>
+        <v>58268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06563850022203456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04743048055767513</v>
+        <v>0.04728629740278115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08660189146485842</v>
+        <v>0.08977051477325065</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -5379,19 +5379,19 @@
         <v>67564</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52533</v>
+        <v>50773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85829</v>
+        <v>85803</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05216818481065597</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04056204435742229</v>
+        <v>0.03920288261832107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06627097097255714</v>
+        <v>0.06625088195301365</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>621088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609473</v>
+        <v>610002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>629721</v>
+        <v>630214</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9613652787391789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9433867185684816</v>
+        <v>0.9442047402206033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9747281072091942</v>
+        <v>0.9754904454507084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>563</v>
@@ -5429,19 +5429,19 @@
         <v>606473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592866</v>
+        <v>590809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>618291</v>
+        <v>618385</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9343614997779655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9133981085351416</v>
+        <v>0.9102294852267492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9525695194423248</v>
+        <v>0.9527137025972188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1123</v>
@@ -5450,19 +5450,19 @@
         <v>1227561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1209296</v>
+        <v>1209322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1242592</v>
+        <v>1244352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.947831815189344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9337290290274426</v>
+        <v>0.9337491180469865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9594379556425777</v>
+        <v>0.9607971173816789</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>23983</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15641</v>
+        <v>15033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36488</v>
+        <v>35557</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05018275686417281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03272764474676441</v>
+        <v>0.03145554162290934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07634827603737797</v>
+        <v>0.07439908875853798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -5575,19 +5575,19 @@
         <v>80539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66081</v>
+        <v>64326</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98537</v>
+        <v>98634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1620999591303178</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1330004127919419</v>
+        <v>0.1294671691723355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.198324598213338</v>
+        <v>0.1985192339217852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -5596,19 +5596,19 @@
         <v>104522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85954</v>
+        <v>85619</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125458</v>
+        <v>125690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1072281330330519</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08817941633012144</v>
+        <v>0.08783489686117611</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1287058847909921</v>
+        <v>0.1289438838004631</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>453935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>441430</v>
+        <v>442361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>462277</v>
+        <v>462885</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9498172431358272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9236517239626221</v>
+        <v>0.9256009112414622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9672723552532356</v>
+        <v>0.9685444583770907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>361</v>
@@ -5646,19 +5646,19 @@
         <v>416310</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398312</v>
+        <v>398215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>430768</v>
+        <v>432523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8379000408696822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8016754017866617</v>
+        <v>0.8014807660782146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.866999587208058</v>
+        <v>0.8705328308276644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>765</v>
@@ -5667,19 +5667,19 @@
         <v>870245</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>849309</v>
+        <v>849077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>888813</v>
+        <v>889148</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8927718669669481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8712941152090079</v>
+        <v>0.8710561161995368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9118205836698785</v>
+        <v>0.9121651031388238</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>24531</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16718</v>
+        <v>15849</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37447</v>
+        <v>35275</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.073373167403365</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05000346447615196</v>
+        <v>0.04740665510131793</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1120072124859426</v>
+        <v>0.1055091332371505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -5792,19 +5792,19 @@
         <v>93459</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78342</v>
+        <v>77894</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111248</v>
+        <v>111085</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2474015376102298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2073840392808942</v>
+        <v>0.2061994077806788</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2944933584269646</v>
+        <v>0.2940603943620546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -5813,19 +5813,19 @@
         <v>117990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99669</v>
+        <v>97609</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137004</v>
+        <v>138784</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1656945324612467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1399669841927623</v>
+        <v>0.1370738080816619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1923959401689018</v>
+        <v>0.1948961772656957</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>309799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296883</v>
+        <v>299055</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>317612</v>
+        <v>318481</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.926626832596635</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8879927875140574</v>
+        <v>0.8944908667628491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9499965355238481</v>
+        <v>0.952593344898682</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -5863,19 +5863,19 @@
         <v>284303</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266514</v>
+        <v>266677</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>299420</v>
+        <v>299868</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7525984623897702</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7055066415730354</v>
+        <v>0.7059396056379453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7926159607191059</v>
+        <v>0.7938005922193219</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -5884,19 +5884,19 @@
         <v>594102</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>575088</v>
+        <v>573308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>612423</v>
+        <v>614483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8343054675387532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8076040598310983</v>
+        <v>0.8051038227343041</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8600330158072377</v>
+        <v>0.8629261919183376</v>
       </c>
     </row>
     <row r="21">
@@ -5988,19 +5988,19 @@
         <v>38961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28840</v>
+        <v>29811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50426</v>
+        <v>49422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1516011921001559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1122200521584689</v>
+        <v>0.115997872694258</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1962128482361441</v>
+        <v>0.1923045257641262</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -6009,19 +6009,19 @@
         <v>102859</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>83429</v>
+        <v>84294</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>122377</v>
+        <v>123300</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2570387133648716</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2084855360027119</v>
+        <v>0.2106454367370605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3058136186708216</v>
+        <v>0.3081189599712357</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -6030,19 +6030,19 @@
         <v>141820</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121435</v>
+        <v>121208</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165735</v>
+        <v>166351</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2158053097066784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.184785422806668</v>
+        <v>0.1844397462592016</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2521956114227531</v>
+        <v>0.2531328297906805</v>
       </c>
     </row>
     <row r="23">
@@ -6059,19 +6059,19 @@
         <v>218037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>206572</v>
+        <v>207576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228158</v>
+        <v>227187</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8483988078998441</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8037871517638561</v>
+        <v>0.8076954742358735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8877799478415312</v>
+        <v>0.8840021273057419</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>222</v>
@@ -6080,19 +6080,19 @@
         <v>297310</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>277792</v>
+        <v>276869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>316740</v>
+        <v>315875</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7429612866351285</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6941863813291784</v>
+        <v>0.6918810400287643</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7915144639972878</v>
+        <v>0.7893545632629394</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>478</v>
@@ -6101,19 +6101,19 @@
         <v>515347</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>491432</v>
+        <v>490816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>535732</v>
+        <v>535959</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7841946902933217</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.747804388577247</v>
+        <v>0.7468671702093197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.815214577193332</v>
+        <v>0.8155602537407984</v>
       </c>
     </row>
     <row r="24">
@@ -6205,19 +6205,19 @@
         <v>121945</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101387</v>
+        <v>101593</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145228</v>
+        <v>146433</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03592581320830929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02986940890457046</v>
+        <v>0.02993002666703197</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0427852814039725</v>
+        <v>0.04314023014249393</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>292</v>
@@ -6226,19 +6226,19 @@
         <v>332083</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>295530</v>
+        <v>295609</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>370184</v>
+        <v>368469</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09368856557978152</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0833759393405461</v>
+        <v>0.08339831635429354</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1044377925977129</v>
+        <v>0.103953816694014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>412</v>
@@ -6247,19 +6247,19 @@
         <v>454028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>413353</v>
+        <v>412400</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>499143</v>
+        <v>498851</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0654323239974996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05957044010146354</v>
+        <v>0.05943313376989615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07193415597012597</v>
+        <v>0.07189207717087452</v>
       </c>
     </row>
     <row r="26">
@@ -6276,19 +6276,19 @@
         <v>3272405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3249122</v>
+        <v>3247917</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3292963</v>
+        <v>3292757</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9640741867916908</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9572147185960275</v>
+        <v>0.9568597698575062</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9701305910954295</v>
+        <v>0.9700699733329681</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3046</v>
@@ -6297,19 +6297,19 @@
         <v>3212459</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3174358</v>
+        <v>3176073</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3249012</v>
+        <v>3248933</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9063114344202184</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8955622074022871</v>
+        <v>0.8960461833059862</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9166240606594539</v>
+        <v>0.9166016836457069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6157</v>
@@ -6318,19 +6318,19 @@
         <v>6484864</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6439749</v>
+        <v>6440041</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6525539</v>
+        <v>6526492</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9345676760025003</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9280658440298737</v>
+        <v>0.9281079228291254</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9404295598985365</v>
+        <v>0.9405668662301038</v>
       </c>
     </row>
     <row r="27">
@@ -6678,19 +6678,19 @@
         <v>7844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2044</v>
+        <v>1955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22228</v>
+        <v>19790</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02163906217012975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005637772398061173</v>
+        <v>0.005391728925228467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06131644221088066</v>
+        <v>0.05458994870637888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6699,19 +6699,19 @@
         <v>7844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2066</v>
+        <v>2042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23855</v>
+        <v>25036</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01018352312468298</v>
+        <v>0.01018352312468297</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002682264951394657</v>
+        <v>0.00265042685035069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03096809730788532</v>
+        <v>0.03250143986829676</v>
       </c>
     </row>
     <row r="5">
@@ -6741,19 +6741,19 @@
         <v>354668</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>340284</v>
+        <v>342722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360468</v>
+        <v>360557</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9783609378298703</v>
+        <v>0.9783609378298701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9386835577891192</v>
+        <v>0.9454100512936212</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9943622276019388</v>
+        <v>0.9946082710747716</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>376</v>
@@ -6762,19 +6762,19 @@
         <v>762461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746450</v>
+        <v>745269</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768239</v>
+        <v>768263</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9898164768753172</v>
+        <v>0.9898164768753169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9690319026921148</v>
+        <v>0.9674985601317033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9973177350486053</v>
+        <v>0.9973495731496494</v>
       </c>
     </row>
     <row r="6">
@@ -6879,19 +6879,19 @@
         <v>6129</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2134</v>
+        <v>2380</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13122</v>
+        <v>12984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01223228077154535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004259364206147004</v>
+        <v>0.004748728544300931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02618667715266598</v>
+        <v>0.02591238437525201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6900,19 +6900,19 @@
         <v>6129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2157</v>
+        <v>2485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13240</v>
+        <v>13269</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.00626743971586338</v>
+        <v>0.006267439715863379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002205986045285351</v>
+        <v>0.002541238353872215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01353805389636122</v>
+        <v>0.01356830328240255</v>
       </c>
     </row>
     <row r="8">
@@ -6942,19 +6942,19 @@
         <v>494954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487961</v>
+        <v>488099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498949</v>
+        <v>498703</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9877677192284545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9738133228473338</v>
+        <v>0.9740876156247479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9957406357938529</v>
+        <v>0.995251271455699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>756</v>
@@ -6963,19 +6963,19 @@
         <v>971844</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>964733</v>
+        <v>964704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975816</v>
+        <v>975488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9937325602841366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.986461946103639</v>
+        <v>0.9864316967175984</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977940139547146</v>
+        <v>0.9974587616461282</v>
       </c>
     </row>
     <row r="9">
@@ -7067,19 +7067,19 @@
         <v>6870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14499</v>
+        <v>13954</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01109089299265319</v>
+        <v>0.0110908929926532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003996746298237443</v>
+        <v>0.004000439247995194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02340660733747871</v>
+        <v>0.02252706132073788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -7088,19 +7088,19 @@
         <v>17737</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11822</v>
+        <v>11684</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25505</v>
+        <v>25804</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02857441012184564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01904553955263048</v>
+        <v>0.01882309400776437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04108905330374397</v>
+        <v>0.04157169574932266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -7109,19 +7109,19 @@
         <v>24607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16692</v>
+        <v>16302</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35371</v>
+        <v>33694</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01984168478274803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01345996385689978</v>
+        <v>0.01314537502684389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02852107531092681</v>
+        <v>0.02716878078270672</v>
       </c>
     </row>
     <row r="11">
@@ -7138,19 +7138,19 @@
         <v>612568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604939</v>
+        <v>605484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616962</v>
+        <v>616960</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9889091070073468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9765933926625213</v>
+        <v>0.9774729386792613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9960032537017626</v>
+        <v>0.9959995607520048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>819</v>
@@ -7159,19 +7159,19 @@
         <v>602983</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595215</v>
+        <v>594916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>608898</v>
+        <v>609036</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9714255898781542</v>
+        <v>0.9714255898781544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9589109466962559</v>
+        <v>0.9584283042506785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9809544604473696</v>
+        <v>0.9811769059922356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1358</v>
@@ -7180,19 +7180,19 @@
         <v>1215551</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204787</v>
+        <v>1206464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1223466</v>
+        <v>1223856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9801583152172521</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9714789246890732</v>
+        <v>0.9728312192172937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9865400361431003</v>
+        <v>0.9868546249731561</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>26615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17100</v>
+        <v>17679</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38576</v>
+        <v>38482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03810748502548297</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02448446439619694</v>
+        <v>0.02531302164565329</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05523316005129502</v>
+        <v>0.05509778120397311</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -7305,19 +7305,19 @@
         <v>62270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51911</v>
+        <v>50874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75075</v>
+        <v>75978</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08539558714315569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07118902148814331</v>
+        <v>0.06976681727041183</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1029557739429441</v>
+        <v>0.1041932880930515</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -7326,19 +7326,19 @@
         <v>88885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72301</v>
+        <v>73465</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106260</v>
+        <v>105670</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0622612494363021</v>
+        <v>0.06226124943630208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05064411057014614</v>
+        <v>0.05145982292834889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07443175082138528</v>
+        <v>0.07401797321289519</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>671807</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>659846</v>
+        <v>659940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>681322</v>
+        <v>680743</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.961892514974517</v>
+        <v>0.9618925149745171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.944766839948705</v>
+        <v>0.9449022187960269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9755155356038031</v>
+        <v>0.9746869783543475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1032</v>
@@ -7376,19 +7376,19 @@
         <v>666928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>654123</v>
+        <v>653220</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>677287</v>
+        <v>678324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9146044128568445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8970442260570561</v>
+        <v>0.8958067119069488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9288109785118567</v>
+        <v>0.9302331827295882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1669</v>
@@ -7397,19 +7397,19 @@
         <v>1338735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1321360</v>
+        <v>1321950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1355319</v>
+        <v>1354155</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9377387505636979</v>
+        <v>0.9377387505636978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9255682491786147</v>
+        <v>0.9259820267871047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9493558894298538</v>
+        <v>0.9485401770716511</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>45117</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33514</v>
+        <v>35140</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59710</v>
+        <v>60539</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07427782604261238</v>
+        <v>0.07427782604261236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05517499043478687</v>
+        <v>0.05785261281372387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09830263906704809</v>
+        <v>0.0996677105971475</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -7522,19 +7522,19 @@
         <v>110249</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96553</v>
+        <v>95210</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>125897</v>
+        <v>124178</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1825419874534559</v>
+        <v>0.1825419874534558</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1598647846650955</v>
+        <v>0.1576421162889577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2084513571291469</v>
+        <v>0.2056055659200781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>233</v>
@@ -7543,19 +7543,19 @@
         <v>155366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>137995</v>
+        <v>136742</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177173</v>
+        <v>176366</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1282559740971252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1139160090302093</v>
+        <v>0.1128819074846839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1462574986449819</v>
+        <v>0.1455918405335324</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>562292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>547699</v>
+        <v>546870</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>573895</v>
+        <v>572269</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9257221739573878</v>
+        <v>0.9257221739573875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9016973609329519</v>
+        <v>0.9003322894028524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9448250095652132</v>
+        <v>0.9421473871862761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>813</v>
@@ -7593,19 +7593,19 @@
         <v>493715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478067</v>
+        <v>479786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>507411</v>
+        <v>508754</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8174580125465442</v>
+        <v>0.817458012546544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7915486428708531</v>
+        <v>0.7943944340799219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8401352153349045</v>
+        <v>0.8423578837110419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1423</v>
@@ -7614,19 +7614,19 @@
         <v>1056008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1034201</v>
+        <v>1035008</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1073379</v>
+        <v>1074632</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8717440259028748</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8537425013550182</v>
+        <v>0.8544081594664676</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8860839909697906</v>
+        <v>0.8871180925153161</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>41640</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32817</v>
+        <v>32029</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53298</v>
+        <v>53389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1027755283052282</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08099832191034992</v>
+        <v>0.07905412443749894</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.131548805849527</v>
+        <v>0.1317736083112374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>254</v>
@@ -7739,19 +7739,19 @@
         <v>132410</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>119070</v>
+        <v>118888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146234</v>
+        <v>148011</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3024002112670179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2719339468708242</v>
+        <v>0.2715185495643508</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.33397243342415</v>
+        <v>0.3380313760542496</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>315</v>
@@ -7760,19 +7760,19 @@
         <v>174050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156251</v>
+        <v>156233</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>192271</v>
+        <v>192617</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2064603955672093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1853469734164376</v>
+        <v>0.1853257547494386</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2280750081838516</v>
+        <v>0.228485214238548</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>363516</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>351858</v>
+        <v>351767</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>372339</v>
+        <v>373127</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8972244716947719</v>
+        <v>0.8972244716947717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.868451194150473</v>
+        <v>0.8682263916887625</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9190016780896502</v>
+        <v>0.920945875562501</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>571</v>
@@ -7810,19 +7810,19 @@
         <v>305453</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>291629</v>
+        <v>289852</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318793</v>
+        <v>318975</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6975997887329822</v>
+        <v>0.6975997887329821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.66602756657585</v>
+        <v>0.6619686239457503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7280660531291757</v>
+        <v>0.7284814504356493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1078</v>
@@ -7831,19 +7831,19 @@
         <v>668968</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>650747</v>
+        <v>650401</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>686767</v>
+        <v>686785</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7935396044327908</v>
+        <v>0.7935396044327907</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7719249918161484</v>
+        <v>0.7715147857614519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8146530265835624</v>
+        <v>0.8146742452505611</v>
       </c>
     </row>
     <row r="21">
@@ -7935,19 +7935,19 @@
         <v>64865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53958</v>
+        <v>53138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78657</v>
+        <v>76285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2097264236461291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1744605691058719</v>
+        <v>0.1718110993453175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2543212301165073</v>
+        <v>0.2466532455843411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>391</v>
@@ -7956,19 +7956,19 @@
         <v>198128</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>181252</v>
+        <v>183164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214210</v>
+        <v>213657</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4279506967705662</v>
+        <v>0.4279506967705663</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3914997680421256</v>
+        <v>0.395628608607786</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.462686980149579</v>
+        <v>0.4614921455619773</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>487</v>
@@ -7977,19 +7977,19 @@
         <v>262993</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>243384</v>
+        <v>243993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>283269</v>
+        <v>284731</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3405532399276595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3151617591253907</v>
+        <v>0.3159498475051933</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3668092695539274</v>
+        <v>0.3687021071180872</v>
       </c>
     </row>
     <row r="23">
@@ -8006,19 +8006,19 @@
         <v>244417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230625</v>
+        <v>232997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255324</v>
+        <v>256144</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7902735763538707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7456787698834927</v>
+        <v>0.753346754415659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8255394308941281</v>
+        <v>0.828188900654683</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>488</v>
@@ -8027,19 +8027,19 @@
         <v>264841</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>248759</v>
+        <v>249312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>281717</v>
+        <v>279805</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5720493032294337</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5373130198504208</v>
+        <v>0.5385078544380224</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6085002319578741</v>
+        <v>0.604371391392214</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>849</v>
@@ -8048,19 +8048,19 @@
         <v>509258</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488982</v>
+        <v>487520</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>528867</v>
+        <v>528258</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6594467600723405</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6331907304460725</v>
+        <v>0.6312978928819128</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6848382408746094</v>
+        <v>0.6840501524948066</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>185107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>160652</v>
+        <v>163643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>211147</v>
+        <v>212279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0525216739642634</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04558287234937346</v>
+        <v>0.04643145361170254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05991011374101578</v>
+        <v>0.06023141494921708</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>958</v>
@@ -8173,19 +8173,19 @@
         <v>534768</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>501734</v>
+        <v>505320</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>568379</v>
+        <v>574227</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1438200611620118</v>
+        <v>0.1438200611620119</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1349359390395074</v>
+        <v>0.1359005572384633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1528594655681188</v>
+        <v>0.1544323734455302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1198</v>
@@ -8194,19 +8194,19 @@
         <v>719874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>677751</v>
+        <v>679962</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>761500</v>
+        <v>763919</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09939310332200819</v>
+        <v>0.09939310332200822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09357717831148313</v>
+        <v>0.09388245331345849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1051403342809832</v>
+        <v>0.1054743669754317</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>3339283</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3313243</v>
+        <v>3312111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3363738</v>
+        <v>3360747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9474783260357367</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9400898862589843</v>
+        <v>0.9397685850507831</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9544171276506265</v>
+        <v>0.9535685463882975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4381</v>
@@ -8244,19 +8244,19 @@
         <v>3183542</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3149931</v>
+        <v>3144083</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3216576</v>
+        <v>3212990</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.856179938837988</v>
+        <v>0.8561799388379882</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.847140534431881</v>
+        <v>0.8455676265544697</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8650640609604926</v>
+        <v>0.8640994427615362</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7509</v>
@@ -8265,19 +8265,19 @@
         <v>6522826</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6481200</v>
+        <v>6478781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6564949</v>
+        <v>6562738</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9006068966779918</v>
+        <v>0.9006068966779919</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8948596657190167</v>
+        <v>0.8945256330245681</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9064228216885167</v>
+        <v>0.9061175466865412</v>
       </c>
     </row>
     <row r="27">
